--- a/daten/population_ch.xlsx
+++ b/daten/population_ch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurazanchin/Dropbox/Mac/Desktop/master/daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75F6BF38-7523-3D43-8B7A-AB68AF167C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8F814C-720C-FB4C-8502-DCC50CB51BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-920" yWindow="-22460" windowWidth="33200" windowHeight="17940" xr2:uid="{752BF075-A2E0-0249-B13B-E08598446618}"/>
+    <workbookView xWindow="2440" yWindow="1060" windowWidth="33200" windowHeight="17940" xr2:uid="{752BF075-A2E0-0249-B13B-E08598446618}"/>
   </bookViews>
   <sheets>
     <sheet name="Kanton" sheetId="1" r:id="rId1"/>
@@ -14073,12 +14073,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -14396,10 +14395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA246D23-E6B3-3841-9D59-838FAFD9B476}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14407,7 +14406,7 @@
     <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>331</v>
       </c>
@@ -14418,7 +14417,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -14428,9 +14427,8 @@
       <c r="C2" s="3">
         <v>1564662</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -14440,9 +14438,8 @@
       <c r="C3" s="3">
         <v>1047473</v>
       </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -14452,9 +14449,8 @@
       <c r="C4" s="3">
         <v>420326</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -14464,9 +14460,8 @@
       <c r="C5" s="3">
         <v>37047</v>
       </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -14476,9 +14471,8 @@
       <c r="C6" s="3">
         <v>163689</v>
       </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -14488,9 +14482,8 @@
       <c r="C7" s="3">
         <v>38435</v>
       </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -14500,9 +14493,8 @@
       <c r="C8" s="3">
         <v>43894</v>
       </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -14512,9 +14504,8 @@
       <c r="C9" s="3">
         <v>41190</v>
       </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -14524,9 +14515,8 @@
       <c r="C10" s="3">
         <v>129787</v>
       </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -14536,9 +14526,8 @@
       <c r="C11" s="3">
         <v>329809</v>
       </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -14548,9 +14537,8 @@
       <c r="C12" s="3">
         <v>280245</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -14560,9 +14548,8 @@
       <c r="C13" s="3">
         <v>196036</v>
       </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -14572,9 +14559,8 @@
       <c r="C14" s="3">
         <v>292817</v>
       </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -14584,9 +14570,8 @@
       <c r="C15" s="3">
         <v>83995</v>
       </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -14596,9 +14581,8 @@
       <c r="C16" s="3">
         <v>55585</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -14608,9 +14592,8 @@
       <c r="C17" s="3">
         <v>16360</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -14620,9 +14603,8 @@
       <c r="C18" s="3">
         <v>519245</v>
       </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -14632,9 +14614,8 @@
       <c r="C19" s="3">
         <v>201376</v>
       </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -14644,9 +14625,8 @@
       <c r="C20" s="3">
         <v>703086</v>
       </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -14656,9 +14636,8 @@
       <c r="C21" s="3">
         <v>285964</v>
       </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -14668,9 +14647,8 @@
       <c r="C22" s="3">
         <v>352181</v>
       </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -14680,9 +14658,8 @@
       <c r="C23" s="3">
         <v>822968</v>
       </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -14692,9 +14669,8 @@
       <c r="C24" s="3">
         <v>353209</v>
       </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -14704,9 +14680,8 @@
       <c r="C25" s="3">
         <v>176166</v>
       </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -14716,9 +14691,8 @@
       <c r="C26" s="3">
         <v>509448</v>
       </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -14728,13 +14702,6 @@
       <c r="C27" s="3">
         <v>73798</v>
       </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -14743,7 +14710,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20BAD25-4FDA-0544-9690-615BD9521614}">
-  <dimension ref="A1:D145"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
@@ -14754,7 +14721,7 @@
     <col min="2" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>331</v>
       </c>
@@ -14765,7 +14732,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>54</v>
       </c>
@@ -14775,9 +14742,8 @@
       <c r="C2" s="3">
         <v>56370</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>55</v>
       </c>
@@ -14787,9 +14753,8 @@
       <c r="C3" s="3">
         <v>32136</v>
       </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
@@ -14799,9 +14764,8 @@
       <c r="C4" s="3">
         <v>158566</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>57</v>
       </c>
@@ -14811,9 +14775,8 @@
       <c r="C5" s="3">
         <v>92479</v>
       </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>58</v>
       </c>
@@ -14823,9 +14786,8 @@
       <c r="C6" s="3">
         <v>98201</v>
       </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
@@ -14835,9 +14797,8 @@
       <c r="C7" s="3">
         <v>128224</v>
       </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
@@ -14847,9 +14808,8 @@
       <c r="C8" s="3">
         <v>107006</v>
       </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>61</v>
       </c>
@@ -14859,9 +14819,8 @@
       <c r="C9" s="3">
         <v>61597</v>
       </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>62</v>
       </c>
@@ -14871,9 +14830,8 @@
       <c r="C10" s="3">
         <v>136806</v>
       </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>63</v>
       </c>
@@ -14883,9 +14841,8 @@
       <c r="C11" s="3">
         <v>174646</v>
       </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>64</v>
       </c>
@@ -14895,9 +14852,8 @@
       <c r="C12" s="3">
         <v>95438</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>65</v>
       </c>
@@ -14907,9 +14863,8 @@
       <c r="C13" s="3">
         <v>423193</v>
       </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>66</v>
       </c>
@@ -14919,9 +14874,8 @@
       <c r="C14" s="3">
         <v>53744</v>
       </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>67</v>
       </c>
@@ -14931,9 +14885,8 @@
       <c r="C15" s="3">
         <v>103148</v>
       </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>68</v>
       </c>
@@ -14943,9 +14896,8 @@
       <c r="C16" s="3">
         <v>77083</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>69</v>
       </c>
@@ -14955,9 +14907,8 @@
       <c r="C17" s="3">
         <v>83002</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>70</v>
       </c>
@@ -14967,9 +14918,8 @@
       <c r="C18" s="3">
         <v>98310</v>
       </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>71</v>
       </c>
@@ -14979,9 +14929,8 @@
       <c r="C19" s="3">
         <v>418858</v>
       </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>72</v>
       </c>
@@ -14991,9 +14940,8 @@
       <c r="C20" s="3">
         <v>108246</v>
       </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>73</v>
       </c>
@@ -15003,9 +14951,8 @@
       <c r="C21" s="3">
         <v>16597</v>
       </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>74</v>
       </c>
@@ -15015,9 +14962,8 @@
       <c r="C22" s="3">
         <v>40674</v>
       </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>75</v>
       </c>
@@ -15027,9 +14973,8 @@
       <c r="C23" s="3">
         <v>47811</v>
       </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>76</v>
       </c>
@@ -15039,9 +14984,8 @@
       <c r="C24" s="3">
         <v>82922</v>
       </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>77</v>
       </c>
@@ -15051,9 +14995,8 @@
       <c r="C25" s="3">
         <v>106450</v>
       </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>78</v>
       </c>
@@ -15063,9 +15006,8 @@
       <c r="C26" s="3">
         <v>74724</v>
       </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>79</v>
       </c>
@@ -15075,9 +15017,8 @@
       <c r="C27" s="3">
         <v>77068</v>
       </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>80</v>
       </c>
@@ -15087,9 +15028,8 @@
       <c r="C28" s="3">
         <v>55826</v>
       </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>81</v>
       </c>
@@ -15099,9 +15039,8 @@
       <c r="C29" s="3">
         <v>23336</v>
       </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>82</v>
       </c>
@@ -15111,9 +15050,8 @@
       <c r="C30" s="3">
         <v>37047</v>
       </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>83</v>
       </c>
@@ -15123,9 +15061,8 @@
       <c r="C31" s="3">
         <v>16253</v>
       </c>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>84</v>
       </c>
@@ -15135,9 +15072,8 @@
       <c r="C32" s="3">
         <v>2384</v>
       </c>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>85</v>
       </c>
@@ -15147,9 +15083,8 @@
       <c r="C33" s="3">
         <v>29545</v>
       </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>86</v>
       </c>
@@ -15159,9 +15094,8 @@
       <c r="C34" s="3">
         <v>13809</v>
       </c>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>87</v>
       </c>
@@ -15171,9 +15105,8 @@
       <c r="C35" s="3">
         <v>45151</v>
       </c>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>88</v>
       </c>
@@ -15183,9 +15116,8 @@
       <c r="C36" s="3">
         <v>56547</v>
       </c>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>89</v>
       </c>
@@ -15195,9 +15127,8 @@
       <c r="C37" s="3">
         <v>38435</v>
       </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>90</v>
       </c>
@@ -15207,9 +15138,8 @@
       <c r="C38" s="3">
         <v>43894</v>
       </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>91</v>
       </c>
@@ -15219,9 +15149,8 @@
       <c r="C39" s="3">
         <v>41190</v>
       </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>92</v>
       </c>
@@ -15231,9 +15160,8 @@
       <c r="C40" s="3">
         <v>129787</v>
       </c>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>93</v>
       </c>
@@ -15243,9 +15171,8 @@
       <c r="C41" s="3">
         <v>34615</v>
       </c>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>94</v>
       </c>
@@ -15255,9 +15182,8 @@
       <c r="C42" s="3">
         <v>25502</v>
       </c>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>95</v>
       </c>
@@ -15267,9 +15193,8 @@
       <c r="C43" s="3">
         <v>58798</v>
       </c>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>96</v>
       </c>
@@ -15279,9 +15204,8 @@
       <c r="C44" s="3">
         <v>107592</v>
       </c>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>97</v>
       </c>
@@ -15291,9 +15215,8 @@
       <c r="C45" s="3">
         <v>38050</v>
       </c>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>98</v>
       </c>
@@ -15303,9 +15226,8 @@
       <c r="C46" s="3">
         <v>45135</v>
       </c>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>99</v>
       </c>
@@ -15315,9 +15237,8 @@
       <c r="C47" s="3">
         <v>20117</v>
       </c>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>100</v>
       </c>
@@ -15327,9 +15248,8 @@
       <c r="C48" s="3">
         <v>22473</v>
       </c>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>101</v>
       </c>
@@ -15339,9 +15259,8 @@
       <c r="C49" s="3">
         <v>14909</v>
       </c>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>102</v>
       </c>
@@ -15351,9 +15270,8 @@
       <c r="C50" s="3">
         <v>8054</v>
       </c>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>103</v>
       </c>
@@ -15363,9 +15281,8 @@
       <c r="C51" s="3">
         <v>20897</v>
       </c>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>104</v>
       </c>
@@ -15375,9 +15292,8 @@
       <c r="C52" s="3">
         <v>25060</v>
       </c>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>105</v>
       </c>
@@ -15387,9 +15303,8 @@
       <c r="C53" s="3">
         <v>53689</v>
       </c>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>106</v>
       </c>
@@ -15399,9 +15314,8 @@
       <c r="C54" s="3">
         <v>46917</v>
       </c>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>107</v>
       </c>
@@ -15411,9 +15325,8 @@
       <c r="C55" s="3">
         <v>56532</v>
       </c>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>108</v>
       </c>
@@ -15423,9 +15336,8 @@
       <c r="C56" s="3">
         <v>16807</v>
       </c>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>109</v>
       </c>
@@ -15435,9 +15347,8 @@
       <c r="C57" s="3">
         <v>14907</v>
       </c>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>110</v>
       </c>
@@ -15447,9 +15358,8 @@
       <c r="C58" s="3">
         <v>196036</v>
       </c>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>111</v>
       </c>
@@ -15459,9 +15369,8 @@
       <c r="C59" s="3">
         <v>157641</v>
       </c>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>112</v>
       </c>
@@ -15471,9 +15380,8 @@
       <c r="C60" s="3">
         <v>20568</v>
       </c>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>113</v>
       </c>
@@ -15483,9 +15391,8 @@
       <c r="C61" s="3">
         <v>62061</v>
       </c>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>114</v>
       </c>
@@ -15495,9 +15402,8 @@
       <c r="C62" s="3">
         <v>36420</v>
       </c>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>115</v>
       </c>
@@ -15507,9 +15413,8 @@
       <c r="C63" s="3">
         <v>16127</v>
       </c>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>116</v>
       </c>
@@ -15519,9 +15424,8 @@
       <c r="C64" s="3">
         <v>4918</v>
       </c>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>117</v>
       </c>
@@ -15531,9 +15435,8 @@
       <c r="C65" s="3">
         <v>9271</v>
       </c>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>118</v>
       </c>
@@ -15543,9 +15446,8 @@
       <c r="C66" s="3">
         <v>55740</v>
       </c>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>119</v>
       </c>
@@ -15555,9 +15457,8 @@
       <c r="C67" s="3">
         <v>3073</v>
       </c>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>120</v>
       </c>
@@ -15567,9 +15468,8 @@
       <c r="C68" s="3">
         <v>5884</v>
       </c>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>121</v>
       </c>
@@ -15579,9 +15479,8 @@
       <c r="C69" s="3">
         <v>5109</v>
       </c>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>122</v>
       </c>
@@ -15591,9 +15490,8 @@
       <c r="C70" s="3">
         <v>24199</v>
       </c>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>123</v>
       </c>
@@ -15603,9 +15501,8 @@
       <c r="C71" s="3">
         <v>17672</v>
       </c>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>124</v>
       </c>
@@ -15615,9 +15512,8 @@
       <c r="C72" s="3">
         <v>13714</v>
       </c>
-      <c r="D72" s="4"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>125</v>
       </c>
@@ -15627,9 +15523,8 @@
       <c r="C73" s="3">
         <v>16360</v>
       </c>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>126</v>
       </c>
@@ -15639,9 +15534,8 @@
       <c r="C74" s="3">
         <v>123274</v>
       </c>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>127</v>
       </c>
@@ -15651,9 +15545,8 @@
       <c r="C75" s="3">
         <v>44146</v>
       </c>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>128</v>
       </c>
@@ -15663,9 +15556,8 @@
       <c r="C76" s="3">
         <v>75399</v>
       </c>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>129</v>
       </c>
@@ -15675,9 +15567,8 @@
       <c r="C77" s="3">
         <v>40568</v>
       </c>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>130</v>
       </c>
@@ -15687,9 +15578,8 @@
       <c r="C78" s="3">
         <v>42126</v>
       </c>
-      <c r="D78" s="4"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>131</v>
       </c>
@@ -15699,9 +15589,8 @@
       <c r="C79" s="3">
         <v>69386</v>
       </c>
-      <c r="D79" s="4"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>132</v>
       </c>
@@ -15711,9 +15600,8 @@
       <c r="C80" s="3">
         <v>47411</v>
       </c>
-      <c r="D80" s="4"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>133</v>
       </c>
@@ -15723,9 +15611,8 @@
       <c r="C81" s="3">
         <v>76935</v>
       </c>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>134</v>
       </c>
@@ -15735,9 +15622,8 @@
       <c r="C82" s="3">
         <v>8144</v>
       </c>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>135</v>
       </c>
@@ -15747,9 +15633,8 @@
       <c r="C83" s="3">
         <v>4571</v>
       </c>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>136</v>
       </c>
@@ -15759,9 +15644,8 @@
       <c r="C84" s="3">
         <v>9189</v>
       </c>
-      <c r="D84" s="4"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>137</v>
       </c>
@@ -15771,9 +15655,8 @@
       <c r="C85" s="3">
         <v>21702</v>
       </c>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>138</v>
       </c>
@@ -15783,9 +15666,8 @@
       <c r="C86" s="3">
         <v>25865</v>
       </c>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>139</v>
       </c>
@@ -15795,9 +15677,8 @@
       <c r="C87" s="3">
         <v>18236</v>
       </c>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>140</v>
       </c>
@@ -15807,9 +15688,8 @@
       <c r="C88" s="3">
         <v>8909</v>
       </c>
-      <c r="D88" s="4"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>141</v>
       </c>
@@ -15819,9 +15699,8 @@
       <c r="C89" s="3">
         <v>43233</v>
       </c>
-      <c r="D89" s="4"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>142</v>
       </c>
@@ -15831,9 +15710,8 @@
       <c r="C90" s="3">
         <v>26060</v>
       </c>
-      <c r="D90" s="4"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>143</v>
       </c>
@@ -15843,9 +15721,8 @@
       <c r="C91" s="3">
         <v>21438</v>
       </c>
-      <c r="D91" s="4"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>144</v>
       </c>
@@ -15855,9 +15732,8 @@
       <c r="C92" s="3">
         <v>14029</v>
       </c>
-      <c r="D92" s="4"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>145</v>
       </c>
@@ -15867,9 +15743,8 @@
       <c r="C93" s="3">
         <v>81275</v>
       </c>
-      <c r="D93" s="4"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>146</v>
       </c>
@@ -15879,9 +15754,8 @@
       <c r="C94" s="3">
         <v>147193</v>
       </c>
-      <c r="D94" s="4"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>147</v>
       </c>
@@ -15891,9 +15765,8 @@
       <c r="C95" s="3">
         <v>80298</v>
       </c>
-      <c r="D95" s="4"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>148</v>
       </c>
@@ -15903,9 +15776,8 @@
       <c r="C96" s="3">
         <v>52802</v>
       </c>
-      <c r="D96" s="4"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>149</v>
       </c>
@@ -15915,9 +15787,8 @@
       <c r="C97" s="3">
         <v>43822</v>
       </c>
-      <c r="D97" s="4"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>150</v>
       </c>
@@ -15927,9 +15798,8 @@
       <c r="C98" s="3">
         <v>33729</v>
       </c>
-      <c r="D98" s="4"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>151</v>
       </c>
@@ -15939,9 +15809,8 @@
       <c r="C99" s="3">
         <v>66522</v>
       </c>
-      <c r="D99" s="4"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>152</v>
       </c>
@@ -15951,9 +15820,8 @@
       <c r="C100" s="3">
         <v>37967</v>
       </c>
-      <c r="D100" s="4"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>153</v>
       </c>
@@ -15963,9 +15831,8 @@
       <c r="C101" s="3">
         <v>48591</v>
       </c>
-      <c r="D101" s="4"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>154</v>
       </c>
@@ -15975,9 +15842,8 @@
       <c r="C102" s="3">
         <v>75116</v>
       </c>
-      <c r="D102" s="4"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>155</v>
       </c>
@@ -15987,9 +15853,8 @@
       <c r="C103" s="3">
         <v>35771</v>
       </c>
-      <c r="D103" s="4"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>156</v>
       </c>
@@ -15999,9 +15864,8 @@
       <c r="C104" s="3">
         <v>59035</v>
       </c>
-      <c r="D104" s="4"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>157</v>
       </c>
@@ -16011,9 +15875,8 @@
       <c r="C105" s="3">
         <v>70418</v>
       </c>
-      <c r="D105" s="4"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>158</v>
       </c>
@@ -16023,9 +15886,8 @@
       <c r="C106" s="3">
         <v>50395</v>
       </c>
-      <c r="D106" s="4"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>159</v>
       </c>
@@ -16035,9 +15897,8 @@
       <c r="C107" s="3">
         <v>48852</v>
       </c>
-      <c r="D107" s="4"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>160</v>
       </c>
@@ -16047,9 +15908,8 @@
       <c r="C108" s="3">
         <v>57264</v>
       </c>
-      <c r="D108" s="4"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>161</v>
       </c>
@@ -16059,9 +15919,8 @@
       <c r="C109" s="3">
         <v>56371</v>
       </c>
-      <c r="D109" s="4"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>162</v>
       </c>
@@ -16071,9 +15930,8 @@
       <c r="C110" s="3">
         <v>5634</v>
       </c>
-      <c r="D110" s="4"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>163</v>
       </c>
@@ -16083,9 +15941,8 @@
       <c r="C111" s="3">
         <v>8718</v>
       </c>
-      <c r="D111" s="4"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>164</v>
       </c>
@@ -16095,9 +15952,8 @@
       <c r="C112" s="3">
         <v>64159</v>
       </c>
-      <c r="D112" s="4"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>165</v>
       </c>
@@ -16107,9 +15963,8 @@
       <c r="C113" s="3">
         <v>151242</v>
       </c>
-      <c r="D113" s="4"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>166</v>
       </c>
@@ -16119,9 +15974,8 @@
       <c r="C114" s="3">
         <v>49778</v>
       </c>
-      <c r="D114" s="4"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>167</v>
       </c>
@@ -16131,9 +15985,8 @@
       <c r="C115" s="3">
         <v>10354</v>
       </c>
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>168</v>
       </c>
@@ -16143,9 +15996,8 @@
       <c r="C116" s="3">
         <v>5925</v>
       </c>
-      <c r="D116" s="4"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>169</v>
       </c>
@@ -16155,9 +16007,8 @@
       <c r="C117" s="3">
         <v>47125</v>
       </c>
-      <c r="D117" s="4"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>170</v>
       </c>
@@ -16167,9 +16018,8 @@
       <c r="C118" s="3">
         <v>45259</v>
       </c>
-      <c r="D118" s="4"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>171</v>
       </c>
@@ -16179,9 +16029,8 @@
       <c r="C119" s="3">
         <v>46776</v>
       </c>
-      <c r="D119" s="4"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>172</v>
       </c>
@@ -16191,9 +16040,8 @@
       <c r="C120" s="3">
         <v>93852</v>
       </c>
-      <c r="D120" s="4"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>173</v>
       </c>
@@ -16203,9 +16051,8 @@
       <c r="C121" s="3">
         <v>169024</v>
       </c>
-      <c r="D121" s="4"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>174</v>
       </c>
@@ -16215,9 +16062,8 @@
       <c r="C122" s="3">
         <v>64270</v>
       </c>
-      <c r="D122" s="4"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>175</v>
       </c>
@@ -16227,9 +16073,8 @@
       <c r="C123" s="3">
         <v>85975</v>
       </c>
-      <c r="D123" s="4"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>176</v>
       </c>
@@ -16239,9 +16084,8 @@
       <c r="C124" s="3">
         <v>104214</v>
       </c>
-      <c r="D124" s="4"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>177</v>
       </c>
@@ -16251,9 +16095,8 @@
       <c r="C125" s="3">
         <v>80245</v>
       </c>
-      <c r="D125" s="4"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>178</v>
       </c>
@@ -16263,9 +16106,8 @@
       <c r="C126" s="3">
         <v>86228</v>
       </c>
-      <c r="D126" s="4"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>179</v>
       </c>
@@ -16275,9 +16117,8 @@
       <c r="C127" s="3">
         <v>27822</v>
       </c>
-      <c r="D127" s="4"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>180</v>
       </c>
@@ -16287,9 +16128,8 @@
       <c r="C128" s="3">
         <v>29856</v>
       </c>
-      <c r="D128" s="4"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>181</v>
       </c>
@@ -16299,9 +16139,8 @@
       <c r="C129" s="3">
         <v>15837</v>
       </c>
-      <c r="D129" s="4"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>182</v>
       </c>
@@ -16311,9 +16150,8 @@
       <c r="C130" s="3">
         <v>4401</v>
       </c>
-      <c r="D130" s="4"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>183</v>
       </c>
@@ -16323,9 +16161,8 @@
       <c r="C131" s="3">
         <v>11123</v>
       </c>
-      <c r="D131" s="4"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>184</v>
       </c>
@@ -16335,9 +16172,8 @@
       <c r="C132" s="3">
         <v>12657</v>
       </c>
-      <c r="D132" s="4"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>185</v>
       </c>
@@ -16347,9 +16183,8 @@
       <c r="C133" s="3">
         <v>49674</v>
       </c>
-      <c r="D133" s="4"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>186</v>
       </c>
@@ -16359,9 +16194,8 @@
       <c r="C134" s="3">
         <v>48636</v>
       </c>
-      <c r="D134" s="4"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>187</v>
       </c>
@@ -16371,9 +16205,8 @@
       <c r="C135" s="3">
         <v>11178</v>
       </c>
-      <c r="D135" s="4"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>188</v>
       </c>
@@ -16383,9 +16216,8 @@
       <c r="C136" s="3">
         <v>14277</v>
       </c>
-      <c r="D136" s="4"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>189</v>
       </c>
@@ -16395,9 +16227,8 @@
       <c r="C137" s="3">
         <v>50019</v>
       </c>
-      <c r="D137" s="4"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>190</v>
       </c>
@@ -16407,9 +16238,8 @@
       <c r="C138" s="3">
         <v>49023</v>
       </c>
-      <c r="D138" s="4"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>191</v>
       </c>
@@ -16419,9 +16249,8 @@
       <c r="C139" s="3">
         <v>28706</v>
       </c>
-      <c r="D139" s="4"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>192</v>
       </c>
@@ -16431,9 +16260,8 @@
       <c r="C140" s="3">
         <v>176166</v>
       </c>
-      <c r="D140" s="4"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>193</v>
       </c>
@@ -16443,9 +16271,8 @@
       <c r="C141" s="3">
         <v>509448</v>
       </c>
-      <c r="D141" s="4"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>194</v>
       </c>
@@ -16455,9 +16282,8 @@
       <c r="C142" s="3">
         <v>39125</v>
       </c>
-      <c r="D142" s="4"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>195</v>
       </c>
@@ -16467,9 +16293,8 @@
       <c r="C143" s="3">
         <v>10478</v>
       </c>
-      <c r="D143" s="4"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>196</v>
       </c>
@@ -16479,13 +16304,10 @@
       <c r="C144" s="3">
         <v>24195</v>
       </c>
-      <c r="D144" s="4"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C135" xr:uid="{D20BAD25-4FDA-0544-9690-615BD9521614}"/>
@@ -16503,7 +16325,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -18281,7 +18103,7 @@
       <c r="A162" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B162" s="4" t="s">
         <v>4388</v>
       </c>
       <c r="C162" s="3">
@@ -18347,7 +18169,7 @@
       <c r="A168" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" s="4" t="s">
         <v>4389</v>
       </c>
       <c r="C168" s="3">

--- a/daten/population_ch.xlsx
+++ b/daten/population_ch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurazanchin/Dropbox/Mac/Desktop/master/daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8F814C-720C-FB4C-8502-DCC50CB51BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB01970A-C822-6A46-8903-0E52AEB49363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="1060" windowWidth="33200" windowHeight="17940" xr2:uid="{752BF075-A2E0-0249-B13B-E08598446618}"/>
+    <workbookView xWindow="400" yWindow="1060" windowWidth="33200" windowHeight="17940" xr2:uid="{752BF075-A2E0-0249-B13B-E08598446618}"/>
   </bookViews>
   <sheets>
     <sheet name="Kanton" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4673" uniqueCount="4661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4673" uniqueCount="4663">
   <si>
     <t>ZH</t>
   </si>
@@ -14024,13 +14024,19 @@
   </si>
   <si>
     <t>Nummer</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>anzahl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -14050,6 +14056,25 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -14073,7 +14098,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -14081,6 +14106,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -14398,7 +14426,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14407,299 +14435,299 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>333</v>
+      <c r="B1" s="5" t="s">
+        <v>4661</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4662</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="7">
         <v>1564662</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="7">
         <v>1047473</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="7">
         <v>420326</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="7">
         <v>37047</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="7">
         <v>163689</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="7">
         <v>38435</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="7">
         <v>43894</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="7">
         <v>41190</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="7">
         <v>129787</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="7">
         <v>329809</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="7">
         <v>280245</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="7">
         <v>196036</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="7">
         <v>292817</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="7">
         <v>83995</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="7">
         <v>55585</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="7">
         <v>16360</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="7">
         <v>519245</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="7">
         <v>201376</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="7">
         <v>703086</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="7">
         <v>285964</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="7">
         <v>352181</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="7">
         <v>822968</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="7">
         <v>353209</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="7">
         <v>176166</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="7">
         <v>509448</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="7">
         <v>73798</v>
       </c>
     </row>

--- a/daten/population_ch.xlsx
+++ b/daten/population_ch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurazanchin/Dropbox/Mac/Desktop/master/daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB01970A-C822-6A46-8903-0E52AEB49363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4D1B2F-886E-FA44-82CF-4CB70A212FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="1060" windowWidth="33200" windowHeight="17940" xr2:uid="{752BF075-A2E0-0249-B13B-E08598446618}"/>
+    <workbookView xWindow="400" yWindow="1060" windowWidth="33200" windowHeight="17940" activeTab="2" xr2:uid="{752BF075-A2E0-0249-B13B-E08598446618}"/>
   </bookViews>
   <sheets>
     <sheet name="Kanton" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4673" uniqueCount="4663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4673" uniqueCount="4664">
   <si>
     <t>ZH</t>
   </si>
@@ -14030,6 +14030,9 @@
   </si>
   <si>
     <t>anzahl</t>
+  </si>
+  <si>
+    <t>Lucerne</t>
   </si>
 </sst>
 </file>
@@ -14425,8 +14428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA246D23-E6B3-3841-9D59-838FAFD9B476}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14472,7 +14475,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>27</v>
+        <v>4663</v>
       </c>
       <c r="C4" s="7">
         <v>420326</v>
@@ -16347,8 +16350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05C30C8-5983-9547-AE95-C008AD7A717D}">
   <dimension ref="A1:C2164"/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/daten/population_ch.xlsx
+++ b/daten/population_ch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurazanchin/Dropbox/Mac/Desktop/master/daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4D1B2F-886E-FA44-82CF-4CB70A212FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC220F55-7F69-C043-8B2B-C28F4CC7EB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="1060" windowWidth="33200" windowHeight="17940" activeTab="2" xr2:uid="{752BF075-A2E0-0249-B13B-E08598446618}"/>
+    <workbookView xWindow="400" yWindow="1060" windowWidth="33200" windowHeight="17940" xr2:uid="{752BF075-A2E0-0249-B13B-E08598446618}"/>
   </bookViews>
   <sheets>
     <sheet name="Kanton" sheetId="1" r:id="rId1"/>
@@ -14428,8 +14428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA246D23-E6B3-3841-9D59-838FAFD9B476}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16350,7 +16350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05C30C8-5983-9547-AE95-C008AD7A717D}">
   <dimension ref="A1:C2164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+    <sheetView zoomScale="109" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/daten/population_ch.xlsx
+++ b/daten/population_ch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurazanchin/Dropbox/Mac/Desktop/master/daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC220F55-7F69-C043-8B2B-C28F4CC7EB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8FD379-85A4-B74E-9EB2-92C2509B4CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="1060" windowWidth="33200" windowHeight="17940" xr2:uid="{752BF075-A2E0-0249-B13B-E08598446618}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Bezirk!$A$1:$C$135</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4673" uniqueCount="4664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4673" uniqueCount="4663">
   <si>
     <t>ZH</t>
   </si>
@@ -14030,9 +14030,6 @@
   </si>
   <si>
     <t>anzahl</t>
-  </si>
-  <si>
-    <t>Lucerne</t>
   </si>
 </sst>
 </file>
@@ -14429,7 +14426,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14475,7 +14472,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>4663</v>
+        <v>27</v>
       </c>
       <c r="C4" s="7">
         <v>420326</v>

--- a/daten/population_ch.xlsx
+++ b/daten/population_ch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurazanchin/Dropbox/Mac/Desktop/master/daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8FD379-85A4-B74E-9EB2-92C2509B4CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BDE4D6-765A-B745-A696-C5E2758F4FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="1060" windowWidth="33200" windowHeight="17940" xr2:uid="{752BF075-A2E0-0249-B13B-E08598446618}"/>
+    <workbookView xWindow="2520" yWindow="500" windowWidth="33200" windowHeight="17940" activeTab="2" xr2:uid="{752BF075-A2E0-0249-B13B-E08598446618}"/>
   </bookViews>
   <sheets>
     <sheet name="Kanton" sheetId="1" r:id="rId1"/>
@@ -13357,9 +13357,6 @@
     <t>Matten bei Interlaken</t>
   </si>
   <si>
-    <t>Niederried bei Interlake</t>
-  </si>
-  <si>
     <t>Oberried am Brienzersee</t>
   </si>
   <si>
@@ -13660,9 +13657,6 @@
     <t>Val Müstair</t>
   </si>
   <si>
-    <t>La Punt Chmues-ch</t>
-  </si>
-  <si>
     <t>St. Moritz</t>
   </si>
   <si>
@@ -13801,9 +13795,6 @@
     <t>Brusino Arsizio</t>
   </si>
   <si>
-    <t>Ponte Caprisca</t>
-  </si>
-  <si>
     <t>Vico Morcote</t>
   </si>
   <si>
@@ -14030,6 +14021,15 @@
   </si>
   <si>
     <t>anzahl</t>
+  </si>
+  <si>
+    <t>Niederried bei Interlaken</t>
+  </si>
+  <si>
+    <t>La Punt Chamues-ch</t>
+  </si>
+  <si>
+    <t>Ponte Capriasca</t>
   </si>
 </sst>
 </file>
@@ -14425,7 +14425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA246D23-E6B3-3841-9D59-838FAFD9B476}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -14439,10 +14439,10 @@
         <v>331</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>4661</v>
+        <v>4658</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>4662</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -14740,8 +14740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20BAD25-4FDA-0544-9690-615BD9521614}">
   <dimension ref="A1:C145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16347,8 +16347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05C30C8-5983-9547-AE95-C008AD7A717D}">
   <dimension ref="A1:C2164"/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A1561" zoomScale="109" workbookViewId="0">
+      <selection activeCell="G1584" sqref="G1584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16358,7 +16358,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4660</v>
+        <v>4657</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2506</v>
@@ -21751,7 +21751,7 @@
         <v>832</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>4438</v>
+        <v>4660</v>
       </c>
       <c r="C491" s="3">
         <v>374</v>
@@ -21762,7 +21762,7 @@
         <v>833</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>4439</v>
+        <v>4438</v>
       </c>
       <c r="C492" s="3">
         <v>474</v>
@@ -21773,7 +21773,7 @@
         <v>834</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>4440</v>
+        <v>4439</v>
       </c>
       <c r="C493" s="3">
         <v>2582</v>
@@ -21795,7 +21795,7 @@
         <v>836</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>4441</v>
+        <v>4440</v>
       </c>
       <c r="C495" s="3">
         <v>647</v>
@@ -22081,7 +22081,7 @@
         <v>862</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>4442</v>
+        <v>4441</v>
       </c>
       <c r="C521" s="3">
         <v>1313</v>
@@ -22125,7 +22125,7 @@
         <v>866</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>4443</v>
+        <v>4442</v>
       </c>
       <c r="C525" s="3">
         <v>3717</v>
@@ -22356,7 +22356,7 @@
         <v>887</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>4444</v>
+        <v>4443</v>
       </c>
       <c r="C546" s="3">
         <v>3524</v>
@@ -22521,7 +22521,7 @@
         <v>902</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>4445</v>
+        <v>4444</v>
       </c>
       <c r="C561" s="3">
         <v>1934</v>
@@ -22642,7 +22642,7 @@
         <v>913</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>4446</v>
+        <v>4445</v>
       </c>
       <c r="C572" s="3">
         <v>2086</v>
@@ -22697,7 +22697,7 @@
         <v>918</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>4447</v>
+        <v>4446</v>
       </c>
       <c r="C577" s="3">
         <v>1725</v>
@@ -22763,7 +22763,7 @@
         <v>924</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>4448</v>
+        <v>4447</v>
       </c>
       <c r="C583" s="3">
         <v>9719</v>
@@ -22796,7 +22796,7 @@
         <v>927</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>4449</v>
+        <v>4448</v>
       </c>
       <c r="C586" s="3">
         <v>3909</v>
@@ -22895,7 +22895,7 @@
         <v>936</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
       <c r="C595" s="3">
         <v>2036</v>
@@ -23027,7 +23027,7 @@
         <v>948</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>4451</v>
+        <v>4450</v>
       </c>
       <c r="C607" s="3">
         <v>13809</v>
@@ -23126,7 +23126,7 @@
         <v>957</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>4452</v>
+        <v>4451</v>
       </c>
       <c r="C616" s="3">
         <v>5385</v>
@@ -23445,7 +23445,7 @@
         <v>986</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>4453</v>
+        <v>4452</v>
       </c>
       <c r="C645" s="3">
         <v>5817</v>
@@ -23456,7 +23456,7 @@
         <v>987</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>4454</v>
+        <v>4453</v>
       </c>
       <c r="C646" s="3">
         <v>3068</v>
@@ -23500,7 +23500,7 @@
         <v>991</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>4455</v>
+        <v>4454</v>
       </c>
       <c r="C650" s="3">
         <v>19210</v>
@@ -23511,7 +23511,7 @@
         <v>992</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>4456</v>
+        <v>4455</v>
       </c>
       <c r="C651" s="3">
         <v>9490</v>
@@ -23654,7 +23654,7 @@
         <v>1005</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>4457</v>
+        <v>4456</v>
       </c>
       <c r="C664" s="3">
         <v>513</v>
@@ -23665,7 +23665,7 @@
         <v>1006</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>4458</v>
+        <v>4457</v>
       </c>
       <c r="C665" s="3">
         <v>1874</v>
@@ -23698,7 +23698,7 @@
         <v>1009</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
       <c r="C668" s="3">
         <v>1203</v>
@@ -23720,7 +23720,7 @@
         <v>1011</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>4460</v>
+        <v>4459</v>
       </c>
       <c r="C670" s="3">
         <v>2865</v>
@@ -23753,7 +23753,7 @@
         <v>1014</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>4461</v>
+        <v>4460</v>
       </c>
       <c r="C673" s="3">
         <v>1864</v>
@@ -23797,7 +23797,7 @@
         <v>1018</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
       <c r="C677" s="3">
         <v>1556</v>
@@ -23874,7 +23874,7 @@
         <v>1025</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>4463</v>
+        <v>4462</v>
       </c>
       <c r="C684" s="3">
         <v>337</v>
@@ -23885,7 +23885,7 @@
         <v>1026</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>4464</v>
+        <v>4463</v>
       </c>
       <c r="C685" s="3">
         <v>346</v>
@@ -23907,7 +23907,7 @@
         <v>1028</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="C687" s="3">
         <v>370</v>
@@ -23940,7 +23940,7 @@
         <v>1031</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>4466</v>
+        <v>4465</v>
       </c>
       <c r="C690" s="3">
         <v>1075</v>
@@ -23951,7 +23951,7 @@
         <v>1032</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C691" s="3">
         <v>471</v>
@@ -23962,7 +23962,7 @@
         <v>1033</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
       <c r="C692" s="3">
         <v>5458</v>
@@ -24215,7 +24215,7 @@
         <v>1056</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>4469</v>
+        <v>4468</v>
       </c>
       <c r="C715" s="3">
         <v>1364</v>
@@ -24248,7 +24248,7 @@
         <v>1059</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>4470</v>
+        <v>4469</v>
       </c>
       <c r="C718" s="3">
         <v>1801</v>
@@ -24380,7 +24380,7 @@
         <v>1071</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="C730" s="3">
         <v>1494</v>
@@ -24468,7 +24468,7 @@
         <v>1079</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>4472</v>
+        <v>4471</v>
       </c>
       <c r="C738" s="3">
         <v>2805</v>
@@ -24501,7 +24501,7 @@
         <v>1082</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>4473</v>
+        <v>4472</v>
       </c>
       <c r="C741" s="3">
         <v>3194</v>
@@ -24545,7 +24545,7 @@
         <v>1086</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>4474</v>
+        <v>4473</v>
       </c>
       <c r="C745" s="3">
         <v>2686</v>
@@ -24556,7 +24556,7 @@
         <v>1087</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>4475</v>
+        <v>4474</v>
       </c>
       <c r="C746" s="3">
         <v>2110</v>
@@ -24567,7 +24567,7 @@
         <v>1088</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>4476</v>
+        <v>4475</v>
       </c>
       <c r="C747" s="3">
         <v>1318</v>
@@ -24633,7 +24633,7 @@
         <v>1094</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>4477</v>
+        <v>4476</v>
       </c>
       <c r="C753" s="3">
         <v>1015</v>
@@ -24765,7 +24765,7 @@
         <v>1106</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>4478</v>
+        <v>4477</v>
       </c>
       <c r="C765" s="3">
         <v>1224</v>
@@ -24886,7 +24886,7 @@
         <v>1117</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="C776" s="3">
         <v>989</v>
@@ -24897,7 +24897,7 @@
         <v>1118</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>4480</v>
+        <v>4479</v>
       </c>
       <c r="C777" s="3">
         <v>1404</v>
@@ -24908,7 +24908,7 @@
         <v>1119</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>4481</v>
+        <v>4480</v>
       </c>
       <c r="C778" s="3">
         <v>4179</v>
@@ -24996,7 +24996,7 @@
         <v>1127</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>4482</v>
+        <v>4481</v>
       </c>
       <c r="C786" s="3">
         <v>885</v>
@@ -25018,7 +25018,7 @@
         <v>1129</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>4483</v>
+        <v>4482</v>
       </c>
       <c r="C788" s="3">
         <v>1018</v>
@@ -25040,7 +25040,7 @@
         <v>1131</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>4484</v>
+        <v>4483</v>
       </c>
       <c r="C790" s="3">
         <v>1223</v>
@@ -25051,7 +25051,7 @@
         <v>1132</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
       <c r="C791" s="3">
         <v>1310</v>
@@ -25183,7 +25183,7 @@
         <v>1144</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>4486</v>
+        <v>4485</v>
       </c>
       <c r="C803" s="3">
         <v>725</v>
@@ -25337,7 +25337,7 @@
         <v>1158</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>4487</v>
+        <v>4486</v>
       </c>
       <c r="C817" s="3">
         <v>1044</v>
@@ -25403,7 +25403,7 @@
         <v>1164</v>
       </c>
       <c r="B823" s="2" t="s">
-        <v>4488</v>
+        <v>4487</v>
       </c>
       <c r="C823" s="3">
         <v>1535</v>
@@ -25535,7 +25535,7 @@
         <v>1176</v>
       </c>
       <c r="B835" s="2" t="s">
-        <v>4489</v>
+        <v>4488</v>
       </c>
       <c r="C835" s="3">
         <v>433</v>
@@ -25546,7 +25546,7 @@
         <v>1177</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>4490</v>
+        <v>4489</v>
       </c>
       <c r="C836" s="3">
         <v>3580</v>
@@ -25557,7 +25557,7 @@
         <v>1178</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>4491</v>
+        <v>4490</v>
       </c>
       <c r="C837" s="3">
         <v>1310</v>
@@ -25755,7 +25755,7 @@
         <v>1196</v>
       </c>
       <c r="B855" s="2" t="s">
-        <v>4492</v>
+        <v>4491</v>
       </c>
       <c r="C855" s="3">
         <v>744</v>
@@ -25766,7 +25766,7 @@
         <v>1197</v>
       </c>
       <c r="B856" s="2" t="s">
-        <v>4493</v>
+        <v>4492</v>
       </c>
       <c r="C856" s="3">
         <v>223</v>
@@ -25799,7 +25799,7 @@
         <v>1200</v>
       </c>
       <c r="B859" s="2" t="s">
-        <v>4494</v>
+        <v>4493</v>
       </c>
       <c r="C859" s="3">
         <v>1000</v>
@@ -25887,7 +25887,7 @@
         <v>1208</v>
       </c>
       <c r="B867" s="2" t="s">
-        <v>4495</v>
+        <v>4494</v>
       </c>
       <c r="C867" s="3">
         <v>1813</v>
@@ -26019,7 +26019,7 @@
         <v>1220</v>
       </c>
       <c r="B879" s="2" t="s">
-        <v>4496</v>
+        <v>4495</v>
       </c>
       <c r="C879" s="3">
         <v>3396</v>
@@ -26041,7 +26041,7 @@
         <v>1222</v>
       </c>
       <c r="B881" s="2" t="s">
-        <v>4497</v>
+        <v>4496</v>
       </c>
       <c r="C881" s="3">
         <v>1079</v>
@@ -26074,7 +26074,7 @@
         <v>1225</v>
       </c>
       <c r="B884" s="2" t="s">
-        <v>4498</v>
+        <v>4497</v>
       </c>
       <c r="C884" s="3">
         <v>739</v>
@@ -26085,7 +26085,7 @@
         <v>1226</v>
       </c>
       <c r="B885" s="2" t="s">
-        <v>4499</v>
+        <v>4498</v>
       </c>
       <c r="C885" s="3">
         <v>5350</v>
@@ -26118,7 +26118,7 @@
         <v>1229</v>
       </c>
       <c r="B888" s="2" t="s">
-        <v>4500</v>
+        <v>4499</v>
       </c>
       <c r="C888" s="3">
         <v>276</v>
@@ -26272,7 +26272,7 @@
         <v>1243</v>
       </c>
       <c r="B902" s="2" t="s">
-        <v>4501</v>
+        <v>4500</v>
       </c>
       <c r="C902" s="3">
         <v>10503</v>
@@ -26382,7 +26382,7 @@
         <v>1253</v>
       </c>
       <c r="B912" s="2" t="s">
-        <v>4502</v>
+        <v>4501</v>
       </c>
       <c r="C912" s="3">
         <v>11114</v>
@@ -26404,7 +26404,7 @@
         <v>1255</v>
       </c>
       <c r="B914" s="2" t="s">
-        <v>4503</v>
+        <v>4502</v>
       </c>
       <c r="C914" s="3">
         <v>19340</v>
@@ -26459,7 +26459,7 @@
         <v>1260</v>
       </c>
       <c r="B919" s="2" t="s">
-        <v>4504</v>
+        <v>4503</v>
       </c>
       <c r="C919" s="3">
         <v>274</v>
@@ -26844,7 +26844,7 @@
         <v>1295</v>
       </c>
       <c r="B954" s="2" t="s">
-        <v>4505</v>
+        <v>4504</v>
       </c>
       <c r="C954" s="3">
         <v>160</v>
@@ -26910,7 +26910,7 @@
         <v>1301</v>
       </c>
       <c r="B960" s="2" t="s">
-        <v>4506</v>
+        <v>4505</v>
       </c>
       <c r="C960" s="3">
         <v>602</v>
@@ -27174,7 +27174,7 @@
         <v>1325</v>
       </c>
       <c r="B984" s="2" t="s">
-        <v>4507</v>
+        <v>4506</v>
       </c>
       <c r="C984" s="3">
         <v>2475</v>
@@ -27273,7 +27273,7 @@
         <v>1334</v>
       </c>
       <c r="B993" s="2" t="s">
-        <v>4508</v>
+        <v>4507</v>
       </c>
       <c r="C993" s="3">
         <v>760</v>
@@ -27284,7 +27284,7 @@
         <v>1335</v>
       </c>
       <c r="B994" s="2" t="s">
-        <v>4509</v>
+        <v>4508</v>
       </c>
       <c r="C994" s="3">
         <v>1428</v>
@@ -27306,7 +27306,7 @@
         <v>1337</v>
       </c>
       <c r="B996" s="2" t="s">
-        <v>4510</v>
+        <v>4509</v>
       </c>
       <c r="C996" s="3">
         <v>330</v>
@@ -27350,7 +27350,7 @@
         <v>1341</v>
       </c>
       <c r="B1000" s="2" t="s">
-        <v>4511</v>
+        <v>4510</v>
       </c>
       <c r="C1000" s="3">
         <v>10522</v>
@@ -27416,7 +27416,7 @@
         <v>1347</v>
       </c>
       <c r="B1006" s="2" t="s">
-        <v>4512</v>
+        <v>4511</v>
       </c>
       <c r="C1006" s="3">
         <v>307</v>
@@ -27449,7 +27449,7 @@
         <v>1350</v>
       </c>
       <c r="B1009" s="2" t="s">
-        <v>4513</v>
+        <v>4512</v>
       </c>
       <c r="C1009" s="3">
         <v>3587</v>
@@ -27548,7 +27548,7 @@
         <v>1359</v>
       </c>
       <c r="B1018" s="2" t="s">
-        <v>4514</v>
+        <v>4513</v>
       </c>
       <c r="C1018" s="3">
         <v>1397</v>
@@ -27614,7 +27614,7 @@
         <v>1365</v>
       </c>
       <c r="B1024" s="2" t="s">
-        <v>4515</v>
+        <v>4514</v>
       </c>
       <c r="C1024" s="3">
         <v>6429</v>
@@ -27636,7 +27636,7 @@
         <v>1367</v>
       </c>
       <c r="B1026" s="2" t="s">
-        <v>4516</v>
+        <v>4515</v>
       </c>
       <c r="C1026" s="3">
         <v>989</v>
@@ -27680,7 +27680,7 @@
         <v>1371</v>
       </c>
       <c r="B1030" s="2" t="s">
-        <v>4517</v>
+        <v>4516</v>
       </c>
       <c r="C1030" s="3">
         <v>693</v>
@@ -27691,7 +27691,7 @@
         <v>1372</v>
       </c>
       <c r="B1031" s="2" t="s">
-        <v>4518</v>
+        <v>4517</v>
       </c>
       <c r="C1031" s="3">
         <v>892</v>
@@ -27812,7 +27812,7 @@
         <v>1383</v>
       </c>
       <c r="B1042" s="2" t="s">
-        <v>4519</v>
+        <v>4518</v>
       </c>
       <c r="C1042" s="3">
         <v>76328</v>
@@ -27845,7 +27845,7 @@
         <v>1386</v>
       </c>
       <c r="B1045" s="2" t="s">
-        <v>4520</v>
+        <v>4519</v>
       </c>
       <c r="C1045" s="3">
         <v>2087</v>
@@ -27867,7 +27867,7 @@
         <v>1388</v>
       </c>
       <c r="B1047" s="2" t="s">
-        <v>4521</v>
+        <v>4520</v>
       </c>
       <c r="C1047" s="3">
         <v>18017</v>
@@ -27889,7 +27889,7 @@
         <v>1390</v>
       </c>
       <c r="B1049" s="2" t="s">
-        <v>4522</v>
+        <v>4521</v>
       </c>
       <c r="C1049" s="3">
         <v>905</v>
@@ -27988,7 +27988,7 @@
         <v>1399</v>
       </c>
       <c r="B1058" s="2" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="C1058" s="3">
         <v>8044</v>
@@ -28043,7 +28043,7 @@
         <v>1404</v>
       </c>
       <c r="B1063" s="2" t="s">
-        <v>4524</v>
+        <v>4523</v>
       </c>
       <c r="C1063" s="3">
         <v>6087</v>
@@ -28087,7 +28087,7 @@
         <v>1408</v>
       </c>
       <c r="B1067" s="2" t="s">
-        <v>4525</v>
+        <v>4524</v>
       </c>
       <c r="C1067" s="3">
         <v>2106</v>
@@ -28098,7 +28098,7 @@
         <v>1409</v>
       </c>
       <c r="B1068" s="2" t="s">
-        <v>4526</v>
+        <v>4525</v>
       </c>
       <c r="C1068" s="3">
         <v>9057</v>
@@ -28120,7 +28120,7 @@
         <v>1411</v>
       </c>
       <c r="B1070" s="2" t="s">
-        <v>4527</v>
+        <v>4526</v>
       </c>
       <c r="C1070" s="3">
         <v>2447</v>
@@ -28131,7 +28131,7 @@
         <v>1412</v>
       </c>
       <c r="B1071" s="2" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="C1071" s="3">
         <v>13286</v>
@@ -28197,7 +28197,7 @@
         <v>1418</v>
       </c>
       <c r="B1077" s="2" t="s">
-        <v>4529</v>
+        <v>4528</v>
       </c>
       <c r="C1077" s="3">
         <v>6538</v>
@@ -28296,7 +28296,7 @@
         <v>1427</v>
       </c>
       <c r="B1086" s="2" t="s">
-        <v>4530</v>
+        <v>4529</v>
       </c>
       <c r="C1086" s="3">
         <v>3025</v>
@@ -28384,7 +28384,7 @@
         <v>1435</v>
       </c>
       <c r="B1094" s="2" t="s">
-        <v>4531</v>
+        <v>4530</v>
       </c>
       <c r="C1094" s="3">
         <v>9836</v>
@@ -28406,7 +28406,7 @@
         <v>1437</v>
       </c>
       <c r="B1096" s="2" t="s">
-        <v>4532</v>
+        <v>4531</v>
       </c>
       <c r="C1096" s="3">
         <v>2607</v>
@@ -28483,7 +28483,7 @@
         <v>1444</v>
       </c>
       <c r="B1103" s="2" t="s">
-        <v>4533</v>
+        <v>4532</v>
       </c>
       <c r="C1103" s="3">
         <v>9414</v>
@@ -28615,7 +28615,7 @@
         <v>1456</v>
       </c>
       <c r="B1115" s="2" t="s">
-        <v>4534</v>
+        <v>4533</v>
       </c>
       <c r="C1115" s="3">
         <v>4848</v>
@@ -28626,7 +28626,7 @@
         <v>1457</v>
       </c>
       <c r="B1116" s="2" t="s">
-        <v>4535</v>
+        <v>4534</v>
       </c>
       <c r="C1116" s="3">
         <v>24306</v>
@@ -28659,7 +28659,7 @@
         <v>1460</v>
       </c>
       <c r="B1119" s="2" t="s">
-        <v>4536</v>
+        <v>4535</v>
       </c>
       <c r="C1119" s="3">
         <v>218</v>
@@ -28692,7 +28692,7 @@
         <v>1463</v>
       </c>
       <c r="B1122" s="2" t="s">
-        <v>4537</v>
+        <v>4536</v>
       </c>
       <c r="C1122" s="3">
         <v>893</v>
@@ -28769,7 +28769,7 @@
         <v>1470</v>
       </c>
       <c r="B1129" s="2" t="s">
-        <v>4538</v>
+        <v>4537</v>
       </c>
       <c r="C1129" s="3">
         <v>1409</v>
@@ -28989,7 +28989,7 @@
         <v>1490</v>
       </c>
       <c r="B1149" s="2" t="s">
-        <v>4539</v>
+        <v>4661</v>
       </c>
       <c r="C1149" s="3">
         <v>692</v>
@@ -29011,7 +29011,7 @@
         <v>1492</v>
       </c>
       <c r="B1151" s="2" t="s">
-        <v>4540</v>
+        <v>4538</v>
       </c>
       <c r="C1151" s="3">
         <v>4957</v>
@@ -29033,7 +29033,7 @@
         <v>1494</v>
       </c>
       <c r="B1153" s="2" t="s">
-        <v>4541</v>
+        <v>4539</v>
       </c>
       <c r="C1153" s="3">
         <v>706</v>
@@ -29110,7 +29110,7 @@
         <v>1501</v>
       </c>
       <c r="B1160" s="2" t="s">
-        <v>4542</v>
+        <v>4540</v>
       </c>
       <c r="C1160" s="3">
         <v>121</v>
@@ -29176,7 +29176,7 @@
         <v>1507</v>
       </c>
       <c r="B1166" s="2" t="s">
-        <v>4543</v>
+        <v>4541</v>
       </c>
       <c r="C1166" s="3">
         <v>2625</v>
@@ -29187,7 +29187,7 @@
         <v>1508</v>
       </c>
       <c r="B1167" s="2" t="s">
-        <v>4544</v>
+        <v>4542</v>
       </c>
       <c r="C1167" s="3">
         <v>878</v>
@@ -29308,7 +29308,7 @@
         <v>1519</v>
       </c>
       <c r="B1178" s="2" t="s">
-        <v>4545</v>
+        <v>4543</v>
       </c>
       <c r="C1178" s="3">
         <v>234</v>
@@ -29363,7 +29363,7 @@
         <v>1524</v>
       </c>
       <c r="B1183" s="2" t="s">
-        <v>4546</v>
+        <v>4544</v>
       </c>
       <c r="C1183" s="3">
         <v>1390</v>
@@ -29484,7 +29484,7 @@
         <v>1535</v>
       </c>
       <c r="B1194" s="2" t="s">
-        <v>4547</v>
+        <v>4545</v>
       </c>
       <c r="C1194" s="3">
         <v>339</v>
@@ -29528,7 +29528,7 @@
         <v>1539</v>
       </c>
       <c r="B1198" s="2" t="s">
-        <v>4548</v>
+        <v>4546</v>
       </c>
       <c r="C1198" s="3">
         <v>1160</v>
@@ -29572,7 +29572,7 @@
         <v>1543</v>
       </c>
       <c r="B1202" s="2" t="s">
-        <v>4549</v>
+        <v>4547</v>
       </c>
       <c r="C1202" s="3">
         <v>967</v>
@@ -29737,7 +29737,7 @@
         <v>1558</v>
       </c>
       <c r="B1217" s="2" t="s">
-        <v>4550</v>
+        <v>4548</v>
       </c>
       <c r="C1217" s="3">
         <v>377</v>
@@ -29770,7 +29770,7 @@
         <v>1561</v>
       </c>
       <c r="B1220" s="2" t="s">
-        <v>4551</v>
+        <v>4549</v>
       </c>
       <c r="C1220" s="3">
         <v>8270</v>
@@ -29792,7 +29792,7 @@
         <v>1563</v>
       </c>
       <c r="B1222" s="2" t="s">
-        <v>4552</v>
+        <v>4550</v>
       </c>
       <c r="C1222" s="3">
         <v>4467</v>
@@ -29913,7 +29913,7 @@
         <v>1574</v>
       </c>
       <c r="B1233" s="2" t="s">
-        <v>4553</v>
+        <v>4551</v>
       </c>
       <c r="C1233" s="3">
         <v>2955</v>
@@ -30078,7 +30078,7 @@
         <v>1589</v>
       </c>
       <c r="B1248" s="2" t="s">
-        <v>4554</v>
+        <v>4552</v>
       </c>
       <c r="C1248" s="3">
         <v>2329</v>
@@ -30166,7 +30166,7 @@
         <v>1597</v>
       </c>
       <c r="B1256" s="2" t="s">
-        <v>4555</v>
+        <v>4553</v>
       </c>
       <c r="C1256" s="3">
         <v>1887</v>
@@ -30188,7 +30188,7 @@
         <v>1599</v>
       </c>
       <c r="B1258" s="2" t="s">
-        <v>4556</v>
+        <v>4554</v>
       </c>
       <c r="C1258" s="3">
         <v>8613</v>
@@ -30265,7 +30265,7 @@
         <v>1606</v>
       </c>
       <c r="B1265" s="2" t="s">
-        <v>4557</v>
+        <v>4555</v>
       </c>
       <c r="C1265" s="3">
         <v>2875</v>
@@ -30375,7 +30375,7 @@
         <v>1616</v>
       </c>
       <c r="B1275" s="2" t="s">
-        <v>4558</v>
+        <v>4556</v>
       </c>
       <c r="C1275" s="3">
         <v>16896</v>
@@ -30496,7 +30496,7 @@
         <v>1627</v>
       </c>
       <c r="B1286" s="2" t="s">
-        <v>4559</v>
+        <v>4557</v>
       </c>
       <c r="C1286" s="3">
         <v>3723</v>
@@ -30584,7 +30584,7 @@
         <v>1635</v>
       </c>
       <c r="B1294" s="2" t="s">
-        <v>4560</v>
+        <v>4558</v>
       </c>
       <c r="C1294" s="3">
         <v>869</v>
@@ -30595,7 +30595,7 @@
         <v>1636</v>
       </c>
       <c r="B1295" s="2" t="s">
-        <v>4561</v>
+        <v>4559</v>
       </c>
       <c r="C1295" s="3">
         <v>1551</v>
@@ -30661,7 +30661,7 @@
         <v>1642</v>
       </c>
       <c r="B1301" s="2" t="s">
-        <v>4562</v>
+        <v>4560</v>
       </c>
       <c r="C1301" s="3">
         <v>3461</v>
@@ -30683,7 +30683,7 @@
         <v>1644</v>
       </c>
       <c r="B1303" s="2" t="s">
-        <v>4563</v>
+        <v>4561</v>
       </c>
       <c r="C1303" s="3">
         <v>1066</v>
@@ -30727,7 +30727,7 @@
         <v>1648</v>
       </c>
       <c r="B1307" s="2" t="s">
-        <v>4564</v>
+        <v>4562</v>
       </c>
       <c r="C1307" s="3">
         <v>496</v>
@@ -30771,7 +30771,7 @@
         <v>1652</v>
       </c>
       <c r="B1311" s="2" t="s">
-        <v>4565</v>
+        <v>4563</v>
       </c>
       <c r="C1311" s="3">
         <v>9018</v>
@@ -30815,7 +30815,7 @@
         <v>1656</v>
       </c>
       <c r="B1315" s="2" t="s">
-        <v>4566</v>
+        <v>4564</v>
       </c>
       <c r="C1315" s="3">
         <v>1717</v>
@@ -30936,7 +30936,7 @@
         <v>1667</v>
       </c>
       <c r="B1326" s="2" t="s">
-        <v>4567</v>
+        <v>4565</v>
       </c>
       <c r="C1326" s="3">
         <v>1019</v>
@@ -31134,7 +31134,7 @@
         <v>1685</v>
       </c>
       <c r="B1344" s="2" t="s">
-        <v>4568</v>
+        <v>4566</v>
       </c>
       <c r="C1344" s="3">
         <v>1441</v>
@@ -31299,7 +31299,7 @@
         <v>1700</v>
       </c>
       <c r="B1359" s="2" t="s">
-        <v>4569</v>
+        <v>4567</v>
       </c>
       <c r="C1359" s="3">
         <v>1194</v>
@@ -31420,7 +31420,7 @@
         <v>1711</v>
       </c>
       <c r="B1370" s="2" t="s">
-        <v>4570</v>
+        <v>4568</v>
       </c>
       <c r="C1370" s="3">
         <v>8377</v>
@@ -31574,7 +31574,7 @@
         <v>1725</v>
       </c>
       <c r="B1384" s="2" t="s">
-        <v>4571</v>
+        <v>4569</v>
       </c>
       <c r="C1384" s="3">
         <v>3369</v>
@@ -31937,7 +31937,7 @@
         <v>1758</v>
       </c>
       <c r="B1417" s="2" t="s">
-        <v>4572</v>
+        <v>4570</v>
       </c>
       <c r="C1417" s="3">
         <v>2864</v>
@@ -31970,7 +31970,7 @@
         <v>1761</v>
       </c>
       <c r="B1420" s="2" t="s">
-        <v>4573</v>
+        <v>4571</v>
       </c>
       <c r="C1420" s="3">
         <v>979</v>
@@ -32047,7 +32047,7 @@
         <v>1768</v>
       </c>
       <c r="B1427" s="2" t="s">
-        <v>4574</v>
+        <v>4572</v>
       </c>
       <c r="C1427" s="3">
         <v>4514</v>
@@ -32124,7 +32124,7 @@
         <v>1775</v>
       </c>
       <c r="B1434" s="2" t="s">
-        <v>4575</v>
+        <v>4573</v>
       </c>
       <c r="C1434" s="3">
         <v>3307</v>
@@ -32212,7 +32212,7 @@
         <v>1783</v>
       </c>
       <c r="B1442" s="2" t="s">
-        <v>4576</v>
+        <v>4574</v>
       </c>
       <c r="C1442" s="3">
         <v>1823</v>
@@ -32674,7 +32674,7 @@
         <v>1825</v>
       </c>
       <c r="B1484" s="2" t="s">
-        <v>4577</v>
+        <v>4575</v>
       </c>
       <c r="C1484" s="3">
         <v>5846</v>
@@ -32685,7 +32685,7 @@
         <v>1826</v>
       </c>
       <c r="B1485" s="2" t="s">
-        <v>4578</v>
+        <v>4576</v>
       </c>
       <c r="C1485" s="3">
         <v>2906</v>
@@ -32729,7 +32729,7 @@
         <v>1830</v>
       </c>
       <c r="B1489" s="2" t="s">
-        <v>4579</v>
+        <v>4577</v>
       </c>
       <c r="C1489" s="3">
         <v>2490</v>
@@ -32861,7 +32861,7 @@
         <v>1842</v>
       </c>
       <c r="B1501" s="2" t="s">
-        <v>4580</v>
+        <v>4578</v>
       </c>
       <c r="C1501" s="3">
         <v>3449</v>
@@ -32883,7 +32883,7 @@
         <v>1844</v>
       </c>
       <c r="B1503" s="2" t="s">
-        <v>4581</v>
+        <v>4579</v>
       </c>
       <c r="C1503" s="3">
         <v>3982</v>
@@ -33125,7 +33125,7 @@
         <v>1866</v>
       </c>
       <c r="B1525" s="2" t="s">
-        <v>4582</v>
+        <v>4580</v>
       </c>
       <c r="C1525" s="3">
         <v>385</v>
@@ -33158,7 +33158,7 @@
         <v>1869</v>
       </c>
       <c r="B1528" s="2" t="s">
-        <v>4583</v>
+        <v>4581</v>
       </c>
       <c r="C1528" s="3">
         <v>461</v>
@@ -33268,7 +33268,7 @@
         <v>1879</v>
       </c>
       <c r="B1538" s="2" t="s">
-        <v>4584</v>
+        <v>4582</v>
       </c>
       <c r="C1538" s="3">
         <v>542</v>
@@ -33444,7 +33444,7 @@
         <v>1895</v>
       </c>
       <c r="B1554" s="2" t="s">
-        <v>4585</v>
+        <v>4583</v>
       </c>
       <c r="C1554" s="3">
         <v>446</v>
@@ -33730,7 +33730,7 @@
         <v>1921</v>
       </c>
       <c r="B1580" s="2" t="s">
-        <v>4586</v>
+        <v>4662</v>
       </c>
       <c r="C1580" s="3">
         <v>1900</v>
@@ -33840,7 +33840,7 @@
         <v>1931</v>
       </c>
       <c r="B1590" s="2" t="s">
-        <v>4587</v>
+        <v>4584</v>
       </c>
       <c r="C1590" s="3">
         <v>418</v>
@@ -33851,7 +33851,7 @@
         <v>1932</v>
       </c>
       <c r="B1591" s="2" t="s">
-        <v>4588</v>
+        <v>4585</v>
       </c>
       <c r="C1591" s="3">
         <v>4735</v>
@@ -33862,7 +33862,7 @@
         <v>1933</v>
       </c>
       <c r="B1592" s="2" t="s">
-        <v>4589</v>
+        <v>4586</v>
       </c>
       <c r="C1592" s="3">
         <v>1377</v>
@@ -33906,7 +33906,7 @@
         <v>1937</v>
       </c>
       <c r="B1596" s="2" t="s">
-        <v>4590</v>
+        <v>4587</v>
       </c>
       <c r="C1596" s="3">
         <v>2240</v>
@@ -33950,7 +33950,7 @@
         <v>1941</v>
       </c>
       <c r="B1600" s="2" t="s">
-        <v>4591</v>
+        <v>4588</v>
       </c>
       <c r="C1600" s="3">
         <v>4383</v>
@@ -33972,7 +33972,7 @@
         <v>1943</v>
       </c>
       <c r="B1602" s="2" t="s">
-        <v>4592</v>
+        <v>4589</v>
       </c>
       <c r="C1602" s="3">
         <v>2646</v>
@@ -34049,7 +34049,7 @@
         <v>1950</v>
       </c>
       <c r="B1609" s="2" t="s">
-        <v>4593</v>
+        <v>4590</v>
       </c>
       <c r="C1609" s="3">
         <v>52</v>
@@ -34115,7 +34115,7 @@
         <v>1956</v>
       </c>
       <c r="B1615" s="2" t="s">
-        <v>4594</v>
+        <v>4591</v>
       </c>
       <c r="C1615" s="3">
         <v>1523</v>
@@ -34258,7 +34258,7 @@
         <v>1969</v>
       </c>
       <c r="B1628" s="2" t="s">
-        <v>4595</v>
+        <v>4592</v>
       </c>
       <c r="C1628" s="3">
         <v>1873</v>
@@ -34269,7 +34269,7 @@
         <v>1970</v>
       </c>
       <c r="B1629" s="2" t="s">
-        <v>4596</v>
+        <v>4593</v>
       </c>
       <c r="C1629" s="3">
         <v>5909</v>
@@ -34368,7 +34368,7 @@
         <v>1979</v>
       </c>
       <c r="B1638" s="2" t="s">
-        <v>4597</v>
+        <v>4594</v>
       </c>
       <c r="C1638" s="3">
         <v>246</v>
@@ -34599,7 +34599,7 @@
         <v>2000</v>
       </c>
       <c r="B1659" s="2" t="s">
-        <v>4598</v>
+        <v>4595</v>
       </c>
       <c r="C1659" s="3">
         <v>110</v>
@@ -34687,7 +34687,7 @@
         <v>2008</v>
       </c>
       <c r="B1667" s="2" t="s">
-        <v>4599</v>
+        <v>4596</v>
       </c>
       <c r="C1667" s="3">
         <v>793</v>
@@ -34786,7 +34786,7 @@
         <v>2017</v>
       </c>
       <c r="B1676" s="2" t="s">
-        <v>4600</v>
+        <v>4597</v>
       </c>
       <c r="C1676" s="3">
         <v>2728</v>
@@ -34852,7 +34852,7 @@
         <v>2023</v>
       </c>
       <c r="B1682" s="2" t="s">
-        <v>4601</v>
+        <v>4598</v>
       </c>
       <c r="C1682" s="3">
         <v>1156</v>
@@ -34918,7 +34918,7 @@
         <v>2029</v>
       </c>
       <c r="B1688" s="2" t="s">
-        <v>4602</v>
+        <v>4599</v>
       </c>
       <c r="C1688" s="3">
         <v>810</v>
@@ -35171,7 +35171,7 @@
         <v>2052</v>
       </c>
       <c r="B1711" s="2" t="s">
-        <v>4603</v>
+        <v>4600</v>
       </c>
       <c r="C1711" s="3">
         <v>494</v>
@@ -35314,7 +35314,7 @@
         <v>2065</v>
       </c>
       <c r="B1724" s="2" t="s">
-        <v>4604</v>
+        <v>4601</v>
       </c>
       <c r="C1724" s="3">
         <v>182</v>
@@ -35380,7 +35380,7 @@
         <v>2071</v>
       </c>
       <c r="B1730" s="2" t="s">
-        <v>4605</v>
+        <v>4602</v>
       </c>
       <c r="C1730" s="3">
         <v>183</v>
@@ -35490,7 +35490,7 @@
         <v>2081</v>
       </c>
       <c r="B1740" s="2" t="s">
-        <v>4607</v>
+        <v>4604</v>
       </c>
       <c r="C1740" s="3">
         <v>4565</v>
@@ -35501,7 +35501,7 @@
         <v>2082</v>
       </c>
       <c r="B1741" s="2" t="s">
-        <v>4606</v>
+        <v>4603</v>
       </c>
       <c r="C1741" s="3">
         <v>882</v>
@@ -35633,7 +35633,7 @@
         <v>2094</v>
       </c>
       <c r="B1753" s="2" t="s">
-        <v>4608</v>
+        <v>4605</v>
       </c>
       <c r="C1753" s="3">
         <v>382</v>
@@ -35798,7 +35798,7 @@
         <v>2109</v>
       </c>
       <c r="B1768" s="2" t="s">
-        <v>4609</v>
+        <v>4606</v>
       </c>
       <c r="C1768" s="3">
         <v>140</v>
@@ -35875,7 +35875,7 @@
         <v>2116</v>
       </c>
       <c r="B1775" s="2" t="s">
-        <v>4610</v>
+        <v>4607</v>
       </c>
       <c r="C1775" s="3">
         <v>9207</v>
@@ -35941,7 +35941,7 @@
         <v>2122</v>
       </c>
       <c r="B1781" s="2" t="s">
-        <v>4611</v>
+        <v>4608</v>
       </c>
       <c r="C1781" s="3">
         <v>2112</v>
@@ -35985,7 +35985,7 @@
         <v>2126</v>
       </c>
       <c r="B1785" s="2" t="s">
-        <v>4612</v>
+        <v>4609</v>
       </c>
       <c r="C1785" s="3">
         <v>394</v>
@@ -36161,7 +36161,7 @@
         <v>2142</v>
       </c>
       <c r="B1801" s="2" t="s">
-        <v>4613</v>
+        <v>4610</v>
       </c>
       <c r="C1801" s="3">
         <v>320</v>
@@ -36205,7 +36205,7 @@
         <v>2146</v>
       </c>
       <c r="B1805" s="2" t="s">
-        <v>4614</v>
+        <v>4611</v>
       </c>
       <c r="C1805" s="3">
         <v>398</v>
@@ -36392,7 +36392,7 @@
         <v>2163</v>
       </c>
       <c r="B1822" s="2" t="s">
-        <v>4615</v>
+        <v>4612</v>
       </c>
       <c r="C1822" s="3">
         <v>2618</v>
@@ -36546,7 +36546,7 @@
         <v>2177</v>
       </c>
       <c r="B1836" s="2" t="s">
-        <v>4616</v>
+        <v>4613</v>
       </c>
       <c r="C1836" s="3">
         <v>827</v>
@@ -36744,7 +36744,7 @@
         <v>2195</v>
       </c>
       <c r="B1854" s="2" t="s">
-        <v>4617</v>
+        <v>4614</v>
       </c>
       <c r="C1854" s="3">
         <v>2950</v>
@@ -36865,7 +36865,7 @@
         <v>2206</v>
       </c>
       <c r="B1865" s="2" t="s">
-        <v>4618</v>
+        <v>4615</v>
       </c>
       <c r="C1865" s="3">
         <v>2383</v>
@@ -37008,7 +37008,7 @@
         <v>2219</v>
       </c>
       <c r="B1878" s="2" t="s">
-        <v>4619</v>
+        <v>4616</v>
       </c>
       <c r="C1878" s="3">
         <v>1162</v>
@@ -37063,7 +37063,7 @@
         <v>2224</v>
       </c>
       <c r="B1883" s="2" t="s">
-        <v>4620</v>
+        <v>4617</v>
       </c>
       <c r="C1883" s="3">
         <v>1385</v>
@@ -37239,7 +37239,7 @@
         <v>2240</v>
       </c>
       <c r="B1899" s="2" t="s">
-        <v>4621</v>
+        <v>4618</v>
       </c>
       <c r="C1899" s="3">
         <v>20881</v>
@@ -37272,7 +37272,7 @@
         <v>2243</v>
       </c>
       <c r="B1902" s="2" t="s">
-        <v>4622</v>
+        <v>4619</v>
       </c>
       <c r="C1902" s="3">
         <v>13193</v>
@@ -37283,7 +37283,7 @@
         <v>2244</v>
       </c>
       <c r="B1903" s="2" t="s">
-        <v>4623</v>
+        <v>4620</v>
       </c>
       <c r="C1903" s="3">
         <v>4931</v>
@@ -37404,7 +37404,7 @@
         <v>2255</v>
       </c>
       <c r="B1914" s="2" t="s">
-        <v>4624</v>
+        <v>4621</v>
       </c>
       <c r="C1914" s="3">
         <v>5627</v>
@@ -37415,7 +37415,7 @@
         <v>2256</v>
       </c>
       <c r="B1915" s="2" t="s">
-        <v>4625</v>
+        <v>4622</v>
       </c>
       <c r="C1915" s="3">
         <v>12213</v>
@@ -37624,7 +37624,7 @@
         <v>2275</v>
       </c>
       <c r="B1934" s="2" t="s">
-        <v>4626</v>
+        <v>4623</v>
       </c>
       <c r="C1934" s="3">
         <v>10609</v>
@@ -37756,7 +37756,7 @@
         <v>2287</v>
       </c>
       <c r="B1946" s="2" t="s">
-        <v>4627</v>
+        <v>4624</v>
       </c>
       <c r="C1946" s="3">
         <v>837</v>
@@ -38273,7 +38273,7 @@
         <v>2334</v>
       </c>
       <c r="B1993" s="2" t="s">
-        <v>4628</v>
+        <v>4625</v>
       </c>
       <c r="C1993" s="3">
         <v>563</v>
@@ -38691,7 +38691,7 @@
         <v>2372</v>
       </c>
       <c r="B2031" s="2" t="s">
-        <v>4629</v>
+        <v>4626</v>
       </c>
       <c r="C2031" s="3">
         <v>2238</v>
@@ -38702,7 +38702,7 @@
         <v>2373</v>
       </c>
       <c r="B2032" s="2" t="s">
-        <v>4630</v>
+        <v>4627</v>
       </c>
       <c r="C2032" s="3">
         <v>1091</v>
@@ -38834,7 +38834,7 @@
         <v>2385</v>
       </c>
       <c r="B2044" s="2" t="s">
-        <v>4631</v>
+        <v>4628</v>
       </c>
       <c r="C2044" s="3">
         <v>8956</v>
@@ -38845,7 +38845,7 @@
         <v>2386</v>
       </c>
       <c r="B2045" s="2" t="s">
-        <v>4632</v>
+        <v>4629</v>
       </c>
       <c r="C2045" s="3">
         <v>36748</v>
@@ -38856,7 +38856,7 @@
         <v>2387</v>
       </c>
       <c r="B2046" s="2" t="s">
-        <v>4633</v>
+        <v>4630</v>
       </c>
       <c r="C2046" s="3">
         <v>214</v>
@@ -38867,7 +38867,7 @@
         <v>2388</v>
       </c>
       <c r="B2047" s="2" t="s">
-        <v>4634</v>
+        <v>4631</v>
       </c>
       <c r="C2047" s="3">
         <v>1058</v>
@@ -38878,7 +38878,7 @@
         <v>2389</v>
       </c>
       <c r="B2048" s="2" t="s">
-        <v>4635</v>
+        <v>4632</v>
       </c>
       <c r="C2048" s="3">
         <v>613</v>
@@ -38900,7 +38900,7 @@
         <v>2391</v>
       </c>
       <c r="B2050" s="2" t="s">
-        <v>4636</v>
+        <v>4633</v>
       </c>
       <c r="C2050" s="3">
         <v>316</v>
@@ -38911,7 +38911,7 @@
         <v>2392</v>
       </c>
       <c r="B2051" s="2" t="s">
-        <v>4637</v>
+        <v>4634</v>
       </c>
       <c r="C2051" s="3">
         <v>513</v>
@@ -38922,7 +38922,7 @@
         <v>2393</v>
       </c>
       <c r="B2052" s="2" t="s">
-        <v>4638</v>
+        <v>4635</v>
       </c>
       <c r="C2052" s="3">
         <v>10741</v>
@@ -38933,7 +38933,7 @@
         <v>2394</v>
       </c>
       <c r="B2053" s="2" t="s">
-        <v>4639</v>
+        <v>4636</v>
       </c>
       <c r="C2053" s="3">
         <v>1240</v>
@@ -38955,7 +38955,7 @@
         <v>2396</v>
       </c>
       <c r="B2055" s="2" t="s">
-        <v>4640</v>
+        <v>4637</v>
       </c>
       <c r="C2055" s="3">
         <v>1888</v>
@@ -38977,7 +38977,7 @@
         <v>2398</v>
       </c>
       <c r="B2057" s="2" t="s">
-        <v>4641</v>
+        <v>4638</v>
       </c>
       <c r="C2057" s="3">
         <v>2629</v>
@@ -39032,7 +39032,7 @@
         <v>2403</v>
       </c>
       <c r="B2062" s="2" t="s">
-        <v>4642</v>
+        <v>4639</v>
       </c>
       <c r="C2062" s="3">
         <v>5307</v>
@@ -39054,7 +39054,7 @@
         <v>2405</v>
       </c>
       <c r="B2064" s="2" t="s">
-        <v>4643</v>
+        <v>4640</v>
       </c>
       <c r="C2064" s="3">
         <v>480</v>
@@ -39065,7 +39065,7 @@
         <v>2406</v>
       </c>
       <c r="B2065" s="2" t="s">
-        <v>4644</v>
+        <v>4641</v>
       </c>
       <c r="C2065" s="3">
         <v>639</v>
@@ -39164,7 +39164,7 @@
         <v>2415</v>
       </c>
       <c r="B2074" s="2" t="s">
-        <v>4645</v>
+        <v>4642</v>
       </c>
       <c r="C2074" s="3">
         <v>22305</v>
@@ -39285,7 +39285,7 @@
         <v>2426</v>
       </c>
       <c r="B2085" s="2" t="s">
-        <v>4646</v>
+        <v>4643</v>
       </c>
       <c r="C2085" s="3">
         <v>2296</v>
@@ -39329,7 +39329,7 @@
         <v>2430</v>
       </c>
       <c r="B2089" s="2" t="s">
-        <v>4647</v>
+        <v>4644</v>
       </c>
       <c r="C2089" s="3">
         <v>12496</v>
@@ -39604,7 +39604,7 @@
         <v>2455</v>
       </c>
       <c r="B2114" s="2" t="s">
-        <v>4648</v>
+        <v>4645</v>
       </c>
       <c r="C2114" s="3">
         <v>469</v>
@@ -39780,7 +39780,7 @@
         <v>2471</v>
       </c>
       <c r="B2130" s="2" t="s">
-        <v>4649</v>
+        <v>4646</v>
       </c>
       <c r="C2130" s="3">
         <v>3229</v>
@@ -39791,7 +39791,7 @@
         <v>2472</v>
       </c>
       <c r="B2131" s="2" t="s">
-        <v>4655</v>
+        <v>4652</v>
       </c>
       <c r="C2131" s="3">
         <v>310</v>
@@ -39802,7 +39802,7 @@
         <v>2473</v>
       </c>
       <c r="B2132" s="2" t="s">
-        <v>4650</v>
+        <v>4647</v>
       </c>
       <c r="C2132" s="3">
         <v>1270</v>
@@ -39813,7 +39813,7 @@
         <v>2474</v>
       </c>
       <c r="B2133" s="2" t="s">
-        <v>4651</v>
+        <v>4648</v>
       </c>
       <c r="C2133" s="3">
         <v>1506</v>
@@ -39824,7 +39824,7 @@
         <v>2475</v>
       </c>
       <c r="B2134" s="2" t="s">
-        <v>4652</v>
+        <v>4649</v>
       </c>
       <c r="C2134" s="3">
         <v>96</v>
@@ -39835,7 +39835,7 @@
         <v>2476</v>
       </c>
       <c r="B2135" s="2" t="s">
-        <v>4653</v>
+        <v>4650</v>
       </c>
       <c r="C2135" s="3">
         <v>148</v>
@@ -39846,7 +39846,7 @@
         <v>2477</v>
       </c>
       <c r="B2136" s="2" t="s">
-        <v>4654</v>
+        <v>4651</v>
       </c>
       <c r="C2136" s="3">
         <v>518</v>
@@ -39857,7 +39857,7 @@
         <v>2478</v>
       </c>
       <c r="B2137" s="2" t="s">
-        <v>4656</v>
+        <v>4653</v>
       </c>
       <c r="C2137" s="3">
         <v>701</v>
@@ -39890,7 +39890,7 @@
         <v>2481</v>
       </c>
       <c r="B2140" s="2" t="s">
-        <v>4657</v>
+        <v>4654</v>
       </c>
       <c r="C2140" s="3">
         <v>1909</v>
@@ -40132,7 +40132,7 @@
         <v>2503</v>
       </c>
       <c r="B2162" s="2" t="s">
-        <v>4658</v>
+        <v>4655</v>
       </c>
       <c r="C2162" s="3">
         <v>1284</v>
@@ -40154,7 +40154,7 @@
         <v>2505</v>
       </c>
       <c r="B2164" s="2" t="s">
-        <v>4659</v>
+        <v>4656</v>
       </c>
       <c r="C2164" s="3">
         <v>1126</v>

--- a/daten/population_ch.xlsx
+++ b/daten/population_ch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurazanchin/Dropbox/Mac/Desktop/master/daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BDE4D6-765A-B745-A696-C5E2758F4FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7709B0E3-5922-1148-B619-B2FB3904D5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="500" windowWidth="33200" windowHeight="17940" activeTab="2" xr2:uid="{752BF075-A2E0-0249-B13B-E08598446618}"/>
+    <workbookView xWindow="400" yWindow="500" windowWidth="33200" windowHeight="17940" activeTab="2" xr2:uid="{752BF075-A2E0-0249-B13B-E08598446618}"/>
   </bookViews>
   <sheets>
     <sheet name="Kanton" sheetId="1" r:id="rId1"/>
@@ -16347,8 +16347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05C30C8-5983-9547-AE95-C008AD7A717D}">
   <dimension ref="A1:C2164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1561" zoomScale="109" workbookViewId="0">
-      <selection activeCell="G1584" sqref="G1584"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
